--- a/datos_prueba/globalstaticfiles/listado_muestras.xlsx
+++ b/datos_prueba/globalstaticfiles/listado_muestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mthem\Desktop\programas_python\datos_prueba\datos_prueba\globalstaticfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F34121-FAAE-4385-92A7-FEE6E85B210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04BE097-B989-4BF4-985C-07C3613B4276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF276A80-BE1C-4D22-83B6-876909CB5A86}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID Individuo</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Subposición</t>
+  </si>
+  <si>
+    <t>Estudio</t>
   </si>
 </sst>
 </file>
@@ -474,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B566347C-B8FA-44B9-BD33-8074AC95B6F4}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,6 +554,9 @@
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/datos_prueba/globalstaticfiles/listado_muestras.xlsx
+++ b/datos_prueba/globalstaticfiles/listado_muestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mthem\Desktop\programas_python\datos_prueba\datos_prueba\globalstaticfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04BE097-B989-4BF4-985C-07C3613B4276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F6E77D-BB38-48EE-8982-A194322CD7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF276A80-BE1C-4D22-83B6-876909CB5A86}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B566347C-B8FA-44B9-BD33-8074AC95B6F4}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,28 +535,28 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
